--- a/Shoeversity Users.xlsx
+++ b/Shoeversity Users.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Admins" sheetId="2" r:id="rId1"/>
     <sheet name="Brands" sheetId="1" r:id="rId2"/>
-    <sheet name="Users" sheetId="3" r:id="rId3"/>
+    <sheet name="Users" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="121">
   <si>
     <t>Brand Name</t>
   </si>
@@ -353,13 +353,40 @@
   </si>
   <si>
     <t>https://www.instagram.com/puma/</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>Logan Dylan Ricanor</t>
+  </si>
+  <si>
+    <t>logandylan37</t>
+  </si>
+  <si>
+    <t>admin123!</t>
+  </si>
+  <si>
+    <t>SHOEVERSITY ADMINISTRATORS</t>
+  </si>
+  <si>
+    <t>SHOEVERSITY CUSTOMERS</t>
+  </si>
+  <si>
+    <t>Marl Christian Ricanor</t>
+  </si>
+  <si>
+    <t>marlricanor20</t>
+  </si>
+  <si>
+    <t>password123!M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,6 +441,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -466,7 +508,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -481,6 +523,12 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -785,13 +833,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -799,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1372,12 +1461,53 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>